--- a/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1_极光组.xlsx
+++ b/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1_极光组.xlsx
@@ -1512,7 +1512,7 @@
   <dimension ref="A1:X173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
